--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc202_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc202_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -541,10 +565,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -588,28 +612,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="3">
+      <c r="A16" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="3">
+      <c r="B16" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="3">
+      <c r="C16" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D16" t="s" s="3">
+      <c r="D16" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="3">
+      <c r="E16" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="3">
+      <c r="F16" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="3">
+      <c r="G16" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="3">
+      <c r="H16" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -634,28 +658,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="3">
+      <c r="B18" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="3">
+      <c r="C18" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="3">
+      <c r="D18" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="3">
+      <c r="E18" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="3">
+      <c r="F18" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="3">
+      <c r="G18" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="3">
+      <c r="H18" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="3">
+      <c r="I18" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1004,10 +1028,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1051,28 +1075,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="3">
+      <c r="A32" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="3">
+      <c r="B32" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="3">
+      <c r="C32" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D32" t="s" s="3">
+      <c r="D32" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="3">
+      <c r="E32" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="3">
+      <c r="F32" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="3">
+      <c r="G32" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="3">
+      <c r="H32" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1097,28 +1121,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="3">
+      <c r="B34" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="3">
+      <c r="C34" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="3">
+      <c r="D34" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="3">
+      <c r="E34" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="3">
+      <c r="F34" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="3">
+      <c r="G34" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="3">
+      <c r="H34" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="3">
+      <c r="I34" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1612,10 +1636,10 @@
       <c r="I51">
         <f>((C51-C50)^2+(D51- D50)^2)^.5</f>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J51" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="K51" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L51" t="n">
@@ -1659,28 +1683,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="3">
+      <c r="A53" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B53" t="s" s="3">
+      <c r="B53" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C53" t="s" s="3">
+      <c r="C53" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D53" t="s" s="3">
+      <c r="D53" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E53" t="s" s="3">
+      <c r="E53" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F53" t="s" s="3">
+      <c r="F53" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G53" t="s" s="3">
+      <c r="G53" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H53" t="s" s="3">
+      <c r="H53" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1705,28 +1729,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="s" s="3">
+      <c r="B55" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C55" t="s" s="3">
+      <c r="C55" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D55" t="s" s="3">
+      <c r="D55" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E55" t="s" s="3">
+      <c r="E55" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F55" t="s" s="3">
+      <c r="F55" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G55" t="s" s="3">
+      <c r="G55" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H55" t="s" s="3">
+      <c r="H55" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I55" t="s" s="3">
+      <c r="I55" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2249,10 +2273,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="3" t="s">
+      <c r="J73" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K73" s="3" t="s">
+      <c r="K73" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2296,28 +2320,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="3">
+      <c r="A75" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="3">
+      <c r="B75" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="3">
+      <c r="C75" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D75" t="s" s="3">
+      <c r="D75" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="3">
+      <c r="E75" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="3">
+      <c r="F75" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="3">
+      <c r="G75" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="3">
+      <c r="H75" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2342,28 +2366,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="3">
+      <c r="B77" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="3">
+      <c r="C77" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="3">
+      <c r="D77" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="3">
+      <c r="E77" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="3">
+      <c r="F77" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="3">
+      <c r="G77" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="3">
+      <c r="H77" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="3">
+      <c r="I77" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2799,10 +2823,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="3" t="s">
+      <c r="J92" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K92" s="3" t="s">
+      <c r="K92" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2846,28 +2870,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="3">
+      <c r="A94" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="3">
+      <c r="B94" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="3">
+      <c r="C94" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D94" t="s" s="3">
+      <c r="D94" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="3">
+      <c r="E94" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="3">
+      <c r="F94" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="3">
+      <c r="G94" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="3">
+      <c r="H94" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2892,28 +2916,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="3">
+      <c r="B96" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="3">
+      <c r="C96" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="3">
+      <c r="D96" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="3">
+      <c r="E96" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="3">
+      <c r="F96" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="3">
+      <c r="G96" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="3">
+      <c r="H96" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="3">
+      <c r="I96" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3378,10 +3402,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="3" t="s">
+      <c r="J112" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K112" s="3" t="s">
+      <c r="K112" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3425,28 +3449,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="3">
+      <c r="A114" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="3">
+      <c r="B114" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="3">
+      <c r="C114" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D114" t="s" s="3">
+      <c r="D114" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="3">
+      <c r="E114" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="3">
+      <c r="F114" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="3">
+      <c r="G114" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="3">
+      <c r="H114" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3471,28 +3495,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="3">
+      <c r="B116" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="3">
+      <c r="C116" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="3">
+      <c r="D116" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="3">
+      <c r="E116" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="3">
+      <c r="F116" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="3">
+      <c r="G116" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="3">
+      <c r="H116" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="3">
+      <c r="I116" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3812,10 +3836,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="3" t="s">
+      <c r="J127" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K127" s="3" t="s">
+      <c r="K127" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3859,28 +3883,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="3">
+      <c r="A129" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="3">
+      <c r="B129" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="3">
+      <c r="C129" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D129" t="s" s="3">
+      <c r="D129" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="3">
+      <c r="E129" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="3">
+      <c r="F129" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="3">
+      <c r="G129" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="3">
+      <c r="H129" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3905,28 +3929,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="3">
+      <c r="B131" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="3">
+      <c r="C131" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="3">
+      <c r="D131" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="3">
+      <c r="E131" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="3">
+      <c r="F131" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="3">
+      <c r="G131" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="3">
+      <c r="H131" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="3">
+      <c r="I131" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4072,10 +4096,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="3" t="s">
+      <c r="J136" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K136" s="3" t="s">
+      <c r="K136" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4119,28 +4143,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="3">
+      <c r="A138" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="3">
+      <c r="B138" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="3">
+      <c r="C138" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D138" t="s" s="3">
+      <c r="D138" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="3">
+      <c r="E138" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="3">
+      <c r="F138" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="3">
+      <c r="G138" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="3">
+      <c r="H138" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4165,28 +4189,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="3">
+      <c r="B140" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="3">
+      <c r="C140" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="3">
+      <c r="D140" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="3">
+      <c r="E140" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="3">
+      <c r="F140" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="3">
+      <c r="G140" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="3">
+      <c r="H140" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="3">
+      <c r="I140" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4361,10 +4385,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="3" t="s">
+      <c r="J146" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K146" s="3" t="s">
+      <c r="K146" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
